--- a/DataDrivenAutomationProject/src/test/resources/excel/3DXUTestSuite.xlsx
+++ b/DataDrivenAutomationProject/src/test/resources/excel/3DXUTestSuite.xlsx
@@ -380,7 +380,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -401,7 +401,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -409,7 +409,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
